--- a/dataset/dataset_brainster.xlsx
+++ b/dataset/dataset_brainster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gj\Documents\Data Science Academy\10. Projects\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gj\Documents\Git\NLP-Chatbox\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1785,9 +1785,6 @@
     <t>Твоето здравје и безбедност ни се приоритет. Поради состојбата предизвикана од COVID-19, сега сите Академии се достапни за следење онлајн. Дознај повеќе на: https://qa.brainster.co/</t>
   </si>
   <si>
-    <t>Би сакал да прашам дали има можност за следење на Академија за QA online(преку скајп и сл).</t>
-  </si>
-  <si>
     <t>Имам кратко работно искуство како Software Tester. Може да ја следам Академијата? Кои се придобивките?</t>
   </si>
   <si>
@@ -2428,6 +2425,9 @@
   </si>
   <si>
     <t>Кои јазици ќе ги учиме</t>
+  </si>
+  <si>
+    <t>Би сакал да прашам дали има можност за следење на Академија за QA online(преку скајп и слично).</t>
   </si>
 </sst>
 </file>
@@ -2691,9 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2820,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -2834,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -2848,7 +2846,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -2862,7 +2860,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -2876,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -2946,7 +2944,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -3058,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -3072,7 +3070,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -3086,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -3142,7 +3140,7 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -3153,10 +3151,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -3184,7 +3182,7 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -3237,7 +3235,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
@@ -3310,7 +3308,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -3321,7 +3319,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -3744,7 +3742,7 @@
         <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
@@ -3758,7 +3756,7 @@
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
@@ -3772,7 +3770,7 @@
         <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
@@ -3786,7 +3784,7 @@
         <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
@@ -3800,7 +3798,7 @@
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C79" t="s">
         <v>90</v>
@@ -3814,7 +3812,7 @@
         <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
@@ -3954,7 +3952,7 @@
         <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C90" t="s">
         <v>90</v>
@@ -4164,7 +4162,7 @@
         <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C105" t="s">
         <v>90</v>
@@ -4178,7 +4176,7 @@
         <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C106" t="s">
         <v>90</v>
@@ -4192,7 +4190,7 @@
         <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C107" t="s">
         <v>90</v>
@@ -4206,7 +4204,7 @@
         <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C108" t="s">
         <v>90</v>
@@ -4525,7 +4523,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B131" t="s">
         <v>174</v>
@@ -4682,7 +4680,7 @@
         <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C142" t="s">
         <v>90</v>
@@ -4696,7 +4694,7 @@
         <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C143" t="s">
         <v>90</v>
@@ -4780,7 +4778,7 @@
         <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C149" t="s">
         <v>90</v>
@@ -4794,7 +4792,7 @@
         <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C150" t="s">
         <v>90</v>
@@ -4808,7 +4806,7 @@
         <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C151" t="s">
         <v>90</v>
@@ -4822,7 +4820,7 @@
         <v>203</v>
       </c>
       <c r="B152" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C152" t="s">
         <v>90</v>
@@ -4836,7 +4834,7 @@
         <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C153" t="s">
         <v>90</v>
@@ -4850,7 +4848,7 @@
         <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C154" t="s">
         <v>90</v>
@@ -4864,7 +4862,7 @@
         <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C155" t="s">
         <v>90</v>
@@ -4878,7 +4876,7 @@
         <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C156" t="s">
         <v>90</v>
@@ -5046,7 +5044,7 @@
         <v>219</v>
       </c>
       <c r="B168" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C168" t="s">
         <v>90</v>
@@ -5060,7 +5058,7 @@
         <v>220</v>
       </c>
       <c r="B169" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C169" t="s">
         <v>90</v>
@@ -5214,7 +5212,7 @@
         <v>233</v>
       </c>
       <c r="B180" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C180" t="s">
         <v>90</v>
@@ -5228,7 +5226,7 @@
         <v>234</v>
       </c>
       <c r="B181" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C181" t="s">
         <v>90</v>
@@ -5242,7 +5240,7 @@
         <v>235</v>
       </c>
       <c r="B182" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C182" t="s">
         <v>90</v>
@@ -5256,7 +5254,7 @@
         <v>236</v>
       </c>
       <c r="B183" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C183" t="s">
         <v>90</v>
@@ -5270,7 +5268,7 @@
         <v>237</v>
       </c>
       <c r="B184" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C184" t="s">
         <v>238</v>
@@ -5284,7 +5282,7 @@
         <v>239</v>
       </c>
       <c r="B185" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C185" t="s">
         <v>238</v>
@@ -5309,7 +5307,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B187" t="s">
         <v>241</v>
@@ -5393,7 +5391,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B193" t="s">
         <v>249</v>
@@ -5494,7 +5492,7 @@
         <v>262</v>
       </c>
       <c r="B200" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C200" t="s">
         <v>238</v>
@@ -5508,7 +5506,7 @@
         <v>263</v>
       </c>
       <c r="B201" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C201" t="s">
         <v>238</v>
@@ -5522,7 +5520,7 @@
         <v>264</v>
       </c>
       <c r="B202" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C202" t="s">
         <v>238</v>
@@ -5592,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="B207" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C207" t="s">
         <v>238</v>
@@ -5606,7 +5604,7 @@
         <v>272</v>
       </c>
       <c r="B208" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C208" t="s">
         <v>238</v>
@@ -5620,7 +5618,7 @@
         <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C209" t="s">
         <v>238</v>
@@ -5704,7 +5702,7 @@
         <v>281</v>
       </c>
       <c r="B215" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C215" t="s">
         <v>238</v>
@@ -5718,7 +5716,7 @@
         <v>282</v>
       </c>
       <c r="B216" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C216" t="s">
         <v>238</v>
@@ -5785,7 +5783,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B221" t="s">
         <v>288</v>
@@ -5802,7 +5800,7 @@
         <v>289</v>
       </c>
       <c r="B222" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C222" t="s">
         <v>238</v>
@@ -5816,7 +5814,7 @@
         <v>290</v>
       </c>
       <c r="B223" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C223" t="s">
         <v>238</v>
@@ -6040,7 +6038,7 @@
         <v>316</v>
       </c>
       <c r="B239" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C239" t="s">
         <v>238</v>
@@ -6068,7 +6066,7 @@
         <v>318</v>
       </c>
       <c r="B241" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C241" t="s">
         <v>238</v>
@@ -6250,7 +6248,7 @@
         <v>340</v>
       </c>
       <c r="B254" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C254" t="s">
         <v>238</v>
@@ -6474,7 +6472,7 @@
         <v>358</v>
       </c>
       <c r="B270" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C270" t="s">
         <v>238</v>
@@ -6516,7 +6514,7 @@
         <v>361</v>
       </c>
       <c r="B273" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C273" t="s">
         <v>238</v>
@@ -6530,7 +6528,7 @@
         <v>362</v>
       </c>
       <c r="B274" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C274" t="s">
         <v>238</v>
@@ -6614,7 +6612,7 @@
         <v>368</v>
       </c>
       <c r="B280" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C280" t="s">
         <v>238</v>
@@ -6625,10 +6623,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B281" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C281" t="s">
         <v>238</v>
@@ -6639,10 +6637,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B282" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C282" t="s">
         <v>238</v>
@@ -6698,7 +6696,7 @@
         <v>372</v>
       </c>
       <c r="B286" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C286" t="s">
         <v>238</v>
@@ -6712,7 +6710,7 @@
         <v>373</v>
       </c>
       <c r="B287" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C287" t="s">
         <v>238</v>
@@ -6779,7 +6777,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B292" t="s">
         <v>288</v>
@@ -6810,7 +6808,7 @@
         <v>379</v>
       </c>
       <c r="B294" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C294" t="s">
         <v>238</v>
@@ -6824,7 +6822,7 @@
         <v>380</v>
       </c>
       <c r="B295" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C295" t="s">
         <v>238</v>
@@ -7006,7 +7004,7 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C308" t="s">
         <v>238</v>
@@ -7101,7 +7099,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B315" t="s">
         <v>396</v>
@@ -7143,7 +7141,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B318" t="s">
         <v>400</v>
@@ -7157,7 +7155,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B319" t="s">
         <v>401</v>
@@ -7188,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="B321" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C321" t="s">
         <v>405</v>
@@ -7216,7 +7214,7 @@
         <v>408</v>
       </c>
       <c r="B323" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C323" t="s">
         <v>405</v>
@@ -7227,7 +7225,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B324" t="s">
         <v>409</v>
@@ -7272,7 +7270,7 @@
         <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -7297,10 +7295,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B329" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C329" t="s">
         <v>405</v>
@@ -7367,7 +7365,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B334" t="s">
         <v>422</v>
@@ -7636,7 +7634,7 @@
         <v>459</v>
       </c>
       <c r="B353" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C353" t="s">
         <v>405</v>
@@ -7664,7 +7662,7 @@
         <v>462</v>
       </c>
       <c r="B355" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C355" t="s">
         <v>405</v>
@@ -7692,7 +7690,7 @@
         <v>464</v>
       </c>
       <c r="B357" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C357" t="s">
         <v>405</v>
@@ -7804,7 +7802,7 @@
         <v>478</v>
       </c>
       <c r="B365" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C365" t="s">
         <v>405</v>
@@ -7874,7 +7872,7 @@
         <v>487</v>
       </c>
       <c r="B370" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C370" t="s">
         <v>405</v>
@@ -7930,7 +7928,7 @@
         <v>493</v>
       </c>
       <c r="B374" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C374" t="s">
         <v>492</v>
@@ -7944,7 +7942,7 @@
         <v>494</v>
       </c>
       <c r="B375" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C375" t="s">
         <v>492</v>
@@ -7986,7 +7984,7 @@
         <v>498</v>
       </c>
       <c r="B378" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C378" t="s">
         <v>492</v>
@@ -8098,7 +8096,7 @@
         <v>511</v>
       </c>
       <c r="B386" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C386" t="s">
         <v>492</v>
@@ -8123,7 +8121,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B388" t="s">
         <v>61</v>
@@ -8263,7 +8261,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B398" t="s">
         <v>527</v>
@@ -8406,7 +8404,7 @@
         <v>541</v>
       </c>
       <c r="B408" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C408" t="s">
         <v>492</v>
@@ -8462,7 +8460,7 @@
         <v>547</v>
       </c>
       <c r="B412" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C412" t="s">
         <v>492</v>
@@ -8476,7 +8474,7 @@
         <v>548</v>
       </c>
       <c r="B413" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C413" t="s">
         <v>492</v>
@@ -8504,7 +8502,7 @@
         <v>551</v>
       </c>
       <c r="B415" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C415" t="s">
         <v>552</v>
@@ -8518,7 +8516,7 @@
         <v>553</v>
       </c>
       <c r="B416" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C416" t="s">
         <v>552</v>
@@ -8532,7 +8530,7 @@
         <v>554</v>
       </c>
       <c r="B417" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C417" t="s">
         <v>552</v>
@@ -8546,7 +8544,7 @@
         <v>555</v>
       </c>
       <c r="B418" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C418" t="s">
         <v>552</v>
@@ -8630,7 +8628,7 @@
         <v>564</v>
       </c>
       <c r="B424" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C424" t="s">
         <v>552</v>
@@ -8644,7 +8642,7 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C425" t="s">
         <v>552</v>
@@ -8658,7 +8656,7 @@
         <v>566</v>
       </c>
       <c r="B426" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C426" t="s">
         <v>552</v>
@@ -8794,8 +8792,8 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>582</v>
+      <c r="A436" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="B436" t="s">
         <v>581</v>
@@ -8809,10 +8807,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>582</v>
+      </c>
+      <c r="B437" t="s">
         <v>583</v>
-      </c>
-      <c r="B437" t="s">
-        <v>584</v>
       </c>
       <c r="C437" t="s">
         <v>552</v>
@@ -8823,10 +8821,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
+        <v>584</v>
+      </c>
+      <c r="B438" t="s">
         <v>585</v>
-      </c>
-      <c r="B438" t="s">
-        <v>586</v>
       </c>
       <c r="C438" t="s">
         <v>552</v>
@@ -8837,10 +8835,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
+        <v>586</v>
+      </c>
+      <c r="B439" t="s">
         <v>587</v>
-      </c>
-      <c r="B439" t="s">
-        <v>588</v>
       </c>
       <c r="C439" t="s">
         <v>552</v>
@@ -8851,10 +8849,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
+        <v>588</v>
+      </c>
+      <c r="B440" t="s">
         <v>589</v>
-      </c>
-      <c r="B440" t="s">
-        <v>590</v>
       </c>
       <c r="C440" t="s">
         <v>552</v>
@@ -8865,10 +8863,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
+        <v>590</v>
+      </c>
+      <c r="B441" t="s">
         <v>591</v>
-      </c>
-      <c r="B441" t="s">
-        <v>592</v>
       </c>
       <c r="C441" t="s">
         <v>552</v>
@@ -8879,10 +8877,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>592</v>
+      </c>
+      <c r="B442" t="s">
         <v>593</v>
-      </c>
-      <c r="B442" t="s">
-        <v>594</v>
       </c>
       <c r="C442" t="s">
         <v>552</v>
@@ -8893,10 +8891,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B443" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C443" t="s">
         <v>552</v>
@@ -8907,10 +8905,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
+        <v>595</v>
+      </c>
+      <c r="B444" t="s">
         <v>596</v>
-      </c>
-      <c r="B444" t="s">
-        <v>597</v>
       </c>
       <c r="C444" t="s">
         <v>552</v>
@@ -8921,10 +8919,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>597</v>
+      </c>
+      <c r="B445" t="s">
         <v>598</v>
-      </c>
-      <c r="B445" t="s">
-        <v>599</v>
       </c>
       <c r="C445" t="s">
         <v>552</v>
@@ -8935,10 +8933,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
+        <v>599</v>
+      </c>
+      <c r="B446" t="s">
         <v>600</v>
-      </c>
-      <c r="B446" t="s">
-        <v>601</v>
       </c>
       <c r="C446" t="s">
         <v>552</v>
@@ -8949,7 +8947,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B447" t="s">
         <v>269</v>
@@ -8963,10 +8961,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
+        <v>602</v>
+      </c>
+      <c r="B448" t="s">
         <v>603</v>
-      </c>
-      <c r="B448" t="s">
-        <v>604</v>
       </c>
       <c r="C448" t="s">
         <v>552</v>
@@ -8977,10 +8975,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>604</v>
+      </c>
+      <c r="B449" t="s">
         <v>605</v>
-      </c>
-      <c r="B449" t="s">
-        <v>606</v>
       </c>
       <c r="C449" t="s">
         <v>552</v>
@@ -8991,10 +8989,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
+        <v>606</v>
+      </c>
+      <c r="B450" t="s">
         <v>607</v>
-      </c>
-      <c r="B450" t="s">
-        <v>608</v>
       </c>
       <c r="C450" t="s">
         <v>552</v>
@@ -9005,10 +9003,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>608</v>
+      </c>
+      <c r="B451" t="s">
         <v>609</v>
-      </c>
-      <c r="B451" t="s">
-        <v>610</v>
       </c>
       <c r="C451" t="s">
         <v>552</v>
@@ -9019,10 +9017,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>610</v>
+      </c>
+      <c r="B452" t="s">
         <v>611</v>
-      </c>
-      <c r="B452" t="s">
-        <v>612</v>
       </c>
       <c r="C452" t="s">
         <v>552</v>
@@ -9033,10 +9031,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
+        <v>612</v>
+      </c>
+      <c r="B453" t="s">
         <v>613</v>
-      </c>
-      <c r="B453" t="s">
-        <v>614</v>
       </c>
       <c r="C453" t="s">
         <v>552</v>
@@ -9047,10 +9045,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B454" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C454" t="s">
         <v>552</v>
@@ -9061,10 +9059,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>615</v>
+      </c>
+      <c r="B455" t="s">
         <v>616</v>
-      </c>
-      <c r="B455" t="s">
-        <v>617</v>
       </c>
       <c r="C455" t="s">
         <v>552</v>
@@ -9078,7 +9076,7 @@
         <v>356</v>
       </c>
       <c r="B456" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C456" t="s">
         <v>552</v>
@@ -9089,7 +9087,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B457" t="s">
         <v>198</v>
@@ -9103,10 +9101,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
+        <v>619</v>
+      </c>
+      <c r="B458" t="s">
         <v>620</v>
-      </c>
-      <c r="B458" t="s">
-        <v>621</v>
       </c>
       <c r="C458" t="s">
         <v>552</v>
@@ -9117,10 +9115,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
+        <v>621</v>
+      </c>
+      <c r="B459" t="s">
         <v>622</v>
-      </c>
-      <c r="B459" t="s">
-        <v>623</v>
       </c>
       <c r="C459" t="s">
         <v>552</v>
@@ -9131,10 +9129,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B460" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C460" t="s">
         <v>552</v>
@@ -9145,10 +9143,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
+        <v>624</v>
+      </c>
+      <c r="B461" t="s">
         <v>625</v>
-      </c>
-      <c r="B461" t="s">
-        <v>626</v>
       </c>
       <c r="C461" t="s">
         <v>552</v>
@@ -9159,10 +9157,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
+        <v>626</v>
+      </c>
+      <c r="B462" t="s">
         <v>627</v>
-      </c>
-      <c r="B462" t="s">
-        <v>628</v>
       </c>
       <c r="C462" t="s">
         <v>552</v>
@@ -9173,10 +9171,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
+        <v>628</v>
+      </c>
+      <c r="B463" t="s">
         <v>629</v>
-      </c>
-      <c r="B463" t="s">
-        <v>630</v>
       </c>
       <c r="C463" t="s">
         <v>552</v>
@@ -9187,10 +9185,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
+        <v>630</v>
+      </c>
+      <c r="B464" t="s">
         <v>631</v>
-      </c>
-      <c r="B464" t="s">
-        <v>632</v>
       </c>
       <c r="C464" t="s">
         <v>552</v>
@@ -9201,10 +9199,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
+        <v>632</v>
+      </c>
+      <c r="B465" t="s">
         <v>633</v>
-      </c>
-      <c r="B465" t="s">
-        <v>634</v>
       </c>
       <c r="C465" t="s">
         <v>552</v>
@@ -9215,10 +9213,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B466" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C466" t="s">
         <v>552</v>
@@ -9229,7 +9227,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B467" t="s">
         <v>578</v>
@@ -9243,7 +9241,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B468" t="s">
         <v>578</v>
@@ -9257,10 +9255,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
+        <v>637</v>
+      </c>
+      <c r="B469" t="s">
         <v>638</v>
-      </c>
-      <c r="B469" t="s">
-        <v>639</v>
       </c>
       <c r="C469" t="s">
         <v>552</v>
@@ -9271,10 +9269,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
+        <v>639</v>
+      </c>
+      <c r="B470" t="s">
         <v>640</v>
-      </c>
-      <c r="B470" t="s">
-        <v>641</v>
       </c>
       <c r="C470" t="s">
         <v>552</v>
@@ -9285,10 +9283,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B471" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C471" t="s">
         <v>552</v>
@@ -9299,10 +9297,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
+        <v>642</v>
+      </c>
+      <c r="B472" t="s">
         <v>643</v>
-      </c>
-      <c r="B472" t="s">
-        <v>644</v>
       </c>
       <c r="C472" t="s">
         <v>552</v>
@@ -9313,10 +9311,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B473" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C473" t="s">
         <v>552</v>
@@ -9327,10 +9325,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B474" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C474" t="s">
         <v>552</v>
@@ -9341,10 +9339,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B475" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C475" t="s">
         <v>552</v>
@@ -9355,7 +9353,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B476" t="s">
         <v>315</v>
@@ -9369,13 +9367,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
+        <v>648</v>
+      </c>
+      <c r="B477" t="s">
+        <v>766</v>
+      </c>
+      <c r="C477" t="s">
         <v>649</v>
-      </c>
-      <c r="B477" t="s">
-        <v>767</v>
-      </c>
-      <c r="C477" t="s">
-        <v>650</v>
       </c>
       <c r="D477">
         <v>6</v>
@@ -9383,13 +9381,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B478" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C478" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D478">
         <v>6</v>
@@ -9397,13 +9395,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
+        <v>651</v>
+      </c>
+      <c r="B479" t="s">
         <v>652</v>
       </c>
-      <c r="B479" t="s">
-        <v>653</v>
-      </c>
       <c r="C479" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D479">
         <v>6</v>
@@ -9411,13 +9409,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B480" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C480" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D480">
         <v>6</v>
@@ -9425,13 +9423,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B481" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C481" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D481">
         <v>6</v>
@@ -9445,7 +9443,7 @@
         <v>416</v>
       </c>
       <c r="C482" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D482">
         <v>6</v>
@@ -9453,13 +9451,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
+        <v>654</v>
+      </c>
+      <c r="B483" t="s">
         <v>655</v>
       </c>
-      <c r="B483" t="s">
-        <v>656</v>
-      </c>
       <c r="C483" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D483">
         <v>6</v>
@@ -9467,13 +9465,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B484" t="s">
         <v>450</v>
       </c>
       <c r="C484" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D484">
         <v>6</v>
@@ -9481,13 +9479,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B485" t="s">
         <v>452</v>
       </c>
       <c r="C485" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D485">
         <v>6</v>
@@ -9495,13 +9493,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
+        <v>658</v>
+      </c>
+      <c r="B486" t="s">
         <v>659</v>
       </c>
-      <c r="B486" t="s">
-        <v>660</v>
-      </c>
       <c r="C486" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D486">
         <v>6</v>
@@ -9509,13 +9507,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
+        <v>660</v>
+      </c>
+      <c r="B487" t="s">
         <v>661</v>
       </c>
-      <c r="B487" t="s">
-        <v>662</v>
-      </c>
       <c r="C487" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D487">
         <v>6</v>
@@ -9523,13 +9521,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B488" t="s">
         <v>468</v>
       </c>
       <c r="C488" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D488">
         <v>6</v>
@@ -9537,13 +9535,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B489" t="s">
         <v>480</v>
       </c>
       <c r="C489" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D489">
         <v>6</v>
@@ -9551,13 +9549,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
+        <v>664</v>
+      </c>
+      <c r="B490" t="s">
         <v>665</v>
       </c>
-      <c r="B490" t="s">
-        <v>666</v>
-      </c>
       <c r="C490" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D490">
         <v>6</v>
@@ -9565,13 +9563,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B491" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C491" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D491">
         <v>6</v>
@@ -9579,13 +9577,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
+        <v>667</v>
+      </c>
+      <c r="B492" t="s">
         <v>668</v>
       </c>
-      <c r="B492" t="s">
-        <v>669</v>
-      </c>
       <c r="C492" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D492">
         <v>6</v>
@@ -9593,13 +9591,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
+        <v>669</v>
+      </c>
+      <c r="B493" t="s">
         <v>670</v>
       </c>
-      <c r="B493" t="s">
-        <v>671</v>
-      </c>
       <c r="C493" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D493">
         <v>6</v>
@@ -9607,13 +9605,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
+        <v>671</v>
+      </c>
+      <c r="B494" t="s">
         <v>672</v>
       </c>
-      <c r="B494" t="s">
-        <v>673</v>
-      </c>
       <c r="C494" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D494">
         <v>6</v>
@@ -9621,13 +9619,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
+        <v>673</v>
+      </c>
+      <c r="B495" t="s">
         <v>674</v>
       </c>
-      <c r="B495" t="s">
-        <v>675</v>
-      </c>
       <c r="C495" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D495">
         <v>6</v>
@@ -9635,13 +9633,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B496" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C496" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D496">
         <v>6</v>
@@ -9649,13 +9647,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B497" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C497" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D497">
         <v>6</v>
@@ -9663,13 +9661,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>677</v>
+      </c>
+      <c r="B498" t="s">
         <v>678</v>
       </c>
-      <c r="B498" t="s">
-        <v>679</v>
-      </c>
       <c r="C498" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D498">
         <v>6</v>
@@ -9677,13 +9675,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
+        <v>679</v>
+      </c>
+      <c r="B499" t="s">
         <v>680</v>
       </c>
-      <c r="B499" t="s">
-        <v>681</v>
-      </c>
       <c r="C499" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D499">
         <v>6</v>
@@ -9691,13 +9689,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B500" t="s">
         <v>27</v>
       </c>
       <c r="C500" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D500">
         <v>6</v>
@@ -9705,13 +9703,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B501" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C501" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D501">
         <v>6</v>
@@ -9719,13 +9717,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
+        <v>683</v>
+      </c>
+      <c r="B502" t="s">
         <v>684</v>
       </c>
-      <c r="B502" t="s">
-        <v>685</v>
-      </c>
       <c r="C502" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D502">
         <v>6</v>
@@ -9733,13 +9731,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B503" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C503" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D503">
         <v>6</v>
@@ -9747,13 +9745,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B504" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C504" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D504">
         <v>6</v>
@@ -9761,13 +9759,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>685</v>
+      </c>
+      <c r="B505" t="s">
         <v>686</v>
       </c>
-      <c r="B505" t="s">
-        <v>687</v>
-      </c>
       <c r="C505" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D505">
         <v>6</v>
@@ -9775,13 +9773,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
         <v>508</v>
       </c>
       <c r="C506" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D506">
         <v>6</v>
@@ -9789,13 +9787,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B507" t="s">
         <v>572</v>
       </c>
       <c r="C507" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D507">
         <v>6</v>
@@ -9803,13 +9801,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>688</v>
+      </c>
+      <c r="B508" t="s">
         <v>689</v>
       </c>
-      <c r="B508" t="s">
-        <v>690</v>
-      </c>
       <c r="C508" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D508">
         <v>6</v>
@@ -9817,13 +9815,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
+        <v>690</v>
+      </c>
+      <c r="B509" t="s">
         <v>691</v>
       </c>
-      <c r="B509" t="s">
-        <v>692</v>
-      </c>
       <c r="C509" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D509">
         <v>6</v>
@@ -9831,13 +9829,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
+        <v>692</v>
+      </c>
+      <c r="B510" t="s">
         <v>693</v>
       </c>
-      <c r="B510" t="s">
-        <v>694</v>
-      </c>
       <c r="C510" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D510">
         <v>6</v>
@@ -9845,13 +9843,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B511" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C511" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D511">
         <v>6</v>
@@ -9859,13 +9857,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B512" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C512" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D512">
         <v>6</v>
@@ -9873,13 +9871,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B513" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C513" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D513">
         <v>6</v>
@@ -9887,13 +9885,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>697</v>
+      </c>
+      <c r="B514" t="s">
         <v>698</v>
       </c>
-      <c r="B514" t="s">
-        <v>699</v>
-      </c>
       <c r="C514" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D514">
         <v>6</v>
@@ -9901,13 +9899,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B515" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C515" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D515">
         <v>6</v>
@@ -9915,13 +9913,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
+        <v>700</v>
+      </c>
+      <c r="B516" t="s">
         <v>701</v>
       </c>
-      <c r="B516" t="s">
-        <v>702</v>
-      </c>
       <c r="C516" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D516">
         <v>6</v>
@@ -9929,13 +9927,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
+        <v>702</v>
+      </c>
+      <c r="B517" t="s">
         <v>703</v>
       </c>
-      <c r="B517" t="s">
-        <v>704</v>
-      </c>
       <c r="C517" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D517">
         <v>6</v>
@@ -9943,13 +9941,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B518" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C518" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D518">
         <v>6</v>
@@ -9957,13 +9955,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
+        <v>704</v>
+      </c>
+      <c r="B519" t="s">
         <v>705</v>
       </c>
-      <c r="B519" t="s">
-        <v>706</v>
-      </c>
       <c r="C519" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D519">
         <v>6</v>
@@ -9971,13 +9969,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>706</v>
+      </c>
+      <c r="B520" t="s">
         <v>707</v>
       </c>
-      <c r="B520" t="s">
-        <v>708</v>
-      </c>
       <c r="C520" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D520">
         <v>6</v>
@@ -9985,13 +9983,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B521" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C521" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D521">
         <v>6</v>
@@ -9999,13 +9997,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>709</v>
+      </c>
+      <c r="B522" t="s">
         <v>710</v>
       </c>
-      <c r="B522" t="s">
-        <v>711</v>
-      </c>
       <c r="C522" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D522">
         <v>6</v>
@@ -10013,13 +10011,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>711</v>
+      </c>
+      <c r="B523" t="s">
         <v>712</v>
       </c>
-      <c r="B523" t="s">
-        <v>713</v>
-      </c>
       <c r="C523" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D523">
         <v>6</v>
@@ -10027,13 +10025,13 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>713</v>
+      </c>
+      <c r="B524" t="s">
         <v>714</v>
       </c>
-      <c r="B524" t="s">
-        <v>715</v>
-      </c>
       <c r="C524" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D524">
         <v>6</v>
